--- a/No Macro Spreadsheets/MDBET (Bethesda) 2020 No Macro.xlsx
+++ b/No Macro Spreadsheets/MDBET (Bethesda) 2020 No Macro.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Personal Stuff\Robotics Data Processors\No Macro Spreadsheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FB876F-6C87-41EC-ABA2-88F9A5219FC7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Processed Data" sheetId="1" r:id="rId1"/>
     <sheet name="Data Input" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphed Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="NamedRange1">#REF!</definedName>
@@ -25,18 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
-  <si>
-    <t>Team Data</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>Autonomous</t>
-  </si>
-  <si>
-    <t>Robot Data</t>
-  </si>
-  <si>
-    <t>Tele-Op</t>
   </si>
   <si>
     <t>Team Number:</t>
@@ -251,11 +237,35 @@
   <si>
     <t>Inner Power Cells Per Second</t>
   </si>
+  <si>
+    <t>Auton Possible Locations</t>
+  </si>
+  <si>
+    <t>Team:</t>
+  </si>
+  <si>
+    <t>X-Var:</t>
+  </si>
+  <si>
+    <t>Y-Var:</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ABPC</t>
+  </si>
+  <si>
+    <t>Matches</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -315,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -563,13 +573,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -627,11 +793,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -659,6 +832,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -683,14 +860,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -698,12 +872,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -721,6 +889,71 @@
                   <a:cs typeface="Arial"/>
                 </a:rPr>
                 <a:t>Click To Process</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>133350</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial"/>
+                  <a:cs typeface="Arial"/>
+                </a:rPr>
+                <a:t>Process Graph</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -930,14 +1163,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -948,1440 +1184,1407 @@
     <col min="4" max="4" width="10.5703125" style="36" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="36" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="46" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="46" customWidth="1"/>
-    <col min="12" max="12" width="16" style="46" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="48" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" style="32" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="28.5703125" style="32" customWidth="1"/>
-    <col min="17" max="17" width="21" style="18" customWidth="1"/>
-    <col min="18" max="18" width="27.5703125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="28" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="28" customWidth="1"/>
-    <col min="21" max="21" width="18" style="28" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" style="28" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="18" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="28"/>
-    <col min="25" max="26" width="14.42578125" style="18"/>
+    <col min="7" max="7" width="25.28515625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="46" customWidth="1"/>
+    <col min="13" max="13" width="16" style="46" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" style="48" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" style="32" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" style="32" customWidth="1"/>
+    <col min="18" max="18" width="21" style="18" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" style="32" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" style="28" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="28" customWidth="1"/>
+    <col min="22" max="22" width="18" style="28" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" style="28" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" style="18" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="28"/>
+    <col min="26" max="27" width="14.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:27" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="24"/>
+    </row>
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="35">
+        <v>449</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="38">
+        <v>4</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="22">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="59"/>
-    </row>
-    <row r="2" spans="1:26" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="L2" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="25" t="s">
+    </row>
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="35">
+        <v>611</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="24"/>
-    </row>
-    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="35">
-        <v>449</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="38">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="22">
+      <c r="I3" s="38"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="35">
-        <v>611</v>
+        <v>888</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="38">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="22">
+      <c r="I4" s="38"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="35">
-        <v>888</v>
+        <v>1389</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="38">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
-      <c r="I5" s="44"/>
+      <c r="I5" s="38"/>
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="26"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="30"/>
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
       <c r="V5" s="26"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="22">
+      <c r="W5" s="26"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="35">
-        <v>1389</v>
+        <v>1885</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="38">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
-      <c r="I6" s="44"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
       <c r="L6" s="44"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="26"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="30"/>
       <c r="T6" s="26"/>
       <c r="U6" s="26"/>
       <c r="V6" s="26"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="22">
+      <c r="W6" s="26"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="35">
-        <v>1885</v>
+        <v>2180</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="38">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="44"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
       <c r="L7" s="44"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="26"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="30"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="22">
+      <c r="W7" s="26"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="35">
-        <v>2180</v>
+        <v>2421</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="38">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="44"/>
+      <c r="I8" s="38"/>
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
       <c r="L8" s="44"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="26"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="30"/>
       <c r="T8" s="26"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="22">
+      <c r="W8" s="26"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
-        <v>2421</v>
+        <v>2534</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="38">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
-      <c r="I9" s="44"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="26"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="30"/>
       <c r="T9" s="26"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="22">
+      <c r="W9" s="26"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="38">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
-      <c r="I10" s="44"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="44"/>
       <c r="K10" s="44"/>
       <c r="L10" s="44"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="26"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="30"/>
       <c r="T10" s="26"/>
       <c r="U10" s="26"/>
       <c r="V10" s="26"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="22">
+      <c r="W10" s="26"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35">
-        <v>2537</v>
+        <v>2819</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="38">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
-      <c r="I11" s="44"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="26"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="30"/>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="26"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="22">
+      <c r="W11" s="26"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="35">
-        <v>2819</v>
+        <v>2900</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="38">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="44"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="26"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="30"/>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
       <c r="V12" s="26"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="22">
+      <c r="W12" s="26"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="35">
-        <v>2900</v>
+        <v>2912</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="38">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
-      <c r="I13" s="44"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="26"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="30"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="22">
+      <c r="W13" s="26"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="38">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="44"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
       <c r="L14" s="44"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="26"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="30"/>
       <c r="T14" s="26"/>
       <c r="U14" s="26"/>
       <c r="V14" s="26"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="22">
+      <c r="W14" s="26"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35">
-        <v>2914</v>
+        <v>2961</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="38">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="44"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="26"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="30"/>
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
       <c r="V15" s="26"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="22">
+      <c r="W15" s="26"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35">
-        <v>2961</v>
+        <v>3793</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="38">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="44"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="26"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="30"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26"/>
       <c r="V16" s="26"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="22">
+      <c r="W16" s="26"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35">
-        <v>3793</v>
+        <v>4242</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="38">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="44"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="44"/>
       <c r="K17" s="44"/>
       <c r="L17" s="44"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="26"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="30"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
       <c r="V17" s="26"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="22">
+      <c r="W17" s="26"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35">
-        <v>4242</v>
+        <v>4456</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="38">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
-      <c r="I18" s="44"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="44"/>
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="26"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="30"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
       <c r="V18" s="26"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="22">
+      <c r="W18" s="26"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
-        <v>4456</v>
+        <v>4514</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="38">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
-      <c r="I19" s="44"/>
+      <c r="I19" s="38"/>
       <c r="J19" s="44"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="26"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="30"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26"/>
       <c r="V19" s="26"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="22">
+      <c r="W19" s="26"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35">
-        <v>4514</v>
+        <v>4821</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="38">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
-      <c r="I20" s="44"/>
+      <c r="I20" s="38"/>
       <c r="J20" s="44"/>
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="26"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="30"/>
       <c r="T20" s="26"/>
       <c r="U20" s="26"/>
       <c r="V20" s="26"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="22">
+      <c r="W20" s="26"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
-        <v>4821</v>
+        <v>5115</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="38">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
-      <c r="I21" s="44"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="26"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="30"/>
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
       <c r="V21" s="26"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="22">
+      <c r="W21" s="26"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
-        <v>5115</v>
+        <v>5243</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="38">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
-      <c r="I22" s="44"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="26"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="30"/>
       <c r="T22" s="26"/>
       <c r="U22" s="26"/>
       <c r="V22" s="26"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="22">
+      <c r="W22" s="26"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
-        <v>5243</v>
+        <v>5338</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="38">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38"/>
-      <c r="I23" s="44"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="44"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="26"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="30"/>
       <c r="T23" s="26"/>
       <c r="U23" s="26"/>
       <c r="V23" s="26"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="22">
+      <c r="W23" s="26"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
-        <v>5338</v>
+        <v>5549</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="38">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="22">
+      <c r="I24" s="38"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35">
-        <v>5549</v>
+        <v>5841</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="38">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38"/>
-      <c r="I25" s="45">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="J25" s="45">
-        <v>10.333333333333334</v>
-      </c>
-      <c r="K25" s="45">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="L25" s="45">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="M25" s="47">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="N25" s="31">
-        <v>0.12345679012345678</v>
-      </c>
-      <c r="O25" s="31">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="P25" s="31">
-        <v>0.12345679012345678</v>
-      </c>
-      <c r="Q25" s="31">
-        <v>16.666666666666668</v>
-      </c>
-      <c r="R25" s="31">
-        <v>0.12345679012345678</v>
-      </c>
-      <c r="S25" s="27">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T25" s="27">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="U25" s="27">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="V25" s="27">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="W25" s="31">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="X25" s="27">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Y25" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="38"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
-        <v>5841</v>
+        <v>5945</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="38">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
-      <c r="I26" s="44"/>
+      <c r="I26" s="38"/>
       <c r="J26" s="44"/>
       <c r="K26" s="44"/>
       <c r="L26" s="44"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="26"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="30"/>
       <c r="T26" s="26"/>
       <c r="U26" s="26"/>
       <c r="V26" s="26"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="22">
+      <c r="W26" s="26"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="35">
-        <v>5945</v>
+        <v>6213</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="38">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38"/>
-      <c r="I27" s="44"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="26"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="30"/>
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
       <c r="V27" s="26"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="22">
+      <c r="W27" s="26"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
-        <v>6213</v>
+        <v>6584</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C28" s="38">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
-      <c r="I28" s="44"/>
+      <c r="I28" s="38"/>
       <c r="J28" s="44"/>
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="26"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="30"/>
       <c r="T28" s="26"/>
       <c r="U28" s="26"/>
       <c r="V28" s="26"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="22">
+      <c r="W28" s="26"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="35">
-        <v>6584</v>
+        <v>6863</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C29" s="38">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="38"/>
-      <c r="I29" s="44"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="44"/>
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="26"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="30"/>
       <c r="T29" s="26"/>
       <c r="U29" s="26"/>
       <c r="V29" s="26"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="22">
+      <c r="W29" s="26"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35">
-        <v>6863</v>
+        <v>6893</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="38">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
-      <c r="I30" s="44"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="44"/>
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="26"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="30"/>
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
       <c r="V30" s="26"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="22">
+      <c r="W30" s="26"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
-        <v>6893</v>
+        <v>7714</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C31" s="38">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
       <c r="H31" s="38"/>
-      <c r="I31" s="44"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="26"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="30"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
       <c r="V31" s="26"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="22">
+      <c r="W31" s="26"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="35">
-        <v>7714</v>
+        <v>7770</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C32" s="38">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
-      <c r="I32" s="44"/>
+      <c r="I32" s="38"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
       <c r="L32" s="44"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="26"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="30"/>
       <c r="T32" s="26"/>
       <c r="U32" s="26"/>
       <c r="V32" s="26"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="22">
+      <c r="W32" s="26"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="35">
-        <v>7770</v>
+        <v>7886</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="38">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
-      <c r="I33" s="44"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="26"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="30"/>
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
       <c r="V33" s="26"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="26"/>
-      <c r="Y33" s="22">
+      <c r="W33" s="26"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
-        <v>7886</v>
+        <v>8197</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="38">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
-      <c r="I34" s="44"/>
+      <c r="I34" s="38"/>
       <c r="J34" s="44"/>
       <c r="K34" s="44"/>
       <c r="L34" s="44"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="26"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="30"/>
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
       <c r="V34" s="26"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="26"/>
-      <c r="Y34" s="22">
+      <c r="W34" s="26"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35">
-        <v>8197</v>
+        <v>8217</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
-      <c r="I35" s="44"/>
+      <c r="I35" s="38"/>
       <c r="J35" s="44"/>
       <c r="K35" s="44"/>
       <c r="L35" s="44"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="26"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="30"/>
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
       <c r="V35" s="26"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="22">
+      <c r="W35" s="26"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="35">
-        <v>8217</v>
+        <v>8230</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
-      <c r="I36" s="44"/>
+      <c r="I36" s="38"/>
       <c r="J36" s="44"/>
       <c r="K36" s="44"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="26"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="30"/>
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
       <c r="V36" s="26"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="22">
+      <c r="W36" s="26"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="35">
-        <v>8230</v>
+        <v>8357</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
-      <c r="I37" s="44"/>
+      <c r="I37" s="38"/>
       <c r="J37" s="44"/>
       <c r="K37" s="44"/>
       <c r="L37" s="44"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="26"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="30"/>
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
       <c r="V37" s="26"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="22">
+      <c r="W37" s="26"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35">
-        <v>8357</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="22">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:Y1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C3:C38">
+  <conditionalFormatting sqref="C2:C37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2398,14 +2601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O515"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2424,12 +2627,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
-      <c r="B1" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="52"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -2442,46 +2645,46 @@
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L2" s="56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -7530,4 +7733,208 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="57">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="63">
+        <v>1</v>
+      </c>
+      <c r="B2" s="64">
+        <v>0</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63">
+        <v>2</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="63">
+        <v>3</v>
+      </c>
+      <c r="B4" s="64"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="63">
+        <v>4</v>
+      </c>
+      <c r="B5" s="64"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="63">
+        <v>5</v>
+      </c>
+      <c r="B6" s="64"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="63"/>
+      <c r="B9" s="64"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="63"/>
+      <c r="B20" s="64"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+    </row>
+    <row r="30" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="65"/>
+      <c r="B30" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!GraphDataTable">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>133350</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>